--- a/PredictionSheets/VM 2014 Tippekonkuranse Atle Magnussen.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse Atle Magnussen.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2100" yWindow="0" windowWidth="25365" windowHeight="14265" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="138">
   <si>
     <t>Group A</t>
   </si>
@@ -371,18 +376,9 @@
     <t>Brasil</t>
   </si>
   <si>
-    <t>Kroatia</t>
-  </si>
-  <si>
-    <t>Nederland</t>
-  </si>
-  <si>
     <t>Spania</t>
   </si>
   <si>
-    <t>Cote D'Ivoire</t>
-  </si>
-  <si>
     <t>Belgia</t>
   </si>
   <si>
@@ -401,9 +397,6 @@
     <t>Frankrike</t>
   </si>
   <si>
-    <t>Tyskland</t>
-  </si>
-  <si>
     <t>Uruguay - Cote D'Ivoire</t>
   </si>
   <si>
@@ -441,6 +434,12 @@
   </si>
   <si>
     <t>Argentina - Tyskland</t>
+  </si>
+  <si>
+    <t>Côte D'Ivoire</t>
+  </si>
+  <si>
+    <t>Netherland</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2789,13 +2788,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,10 +2831,10 @@
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>24</v>
@@ -2846,7 +2845,7 @@
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>16</v>
@@ -2855,12 +2854,12 @@
         <v>26</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="83" t="s">
         <v>18</v>
@@ -2869,7 +2868,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2888,15 +2887,15 @@
         <v>18</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>16</v>
@@ -2905,7 +2904,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2921,10 +2920,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2937,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="C20" s="86" t="s">
         <v>115</v>
@@ -2959,7 +2958,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3023,7 +3022,7 @@
         <v>49</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I3" s="59"/>
       <c r="J3" s="60">
@@ -3050,7 +3049,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="64">
@@ -3077,7 +3076,7 @@
         <v>51</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="64">
@@ -3104,7 +3103,7 @@
         <v>52</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="64">
@@ -3131,7 +3130,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I7" s="63"/>
       <c r="J7" s="64">
@@ -3150,7 +3149,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="64">
@@ -3177,7 +3176,7 @@
         <v>55</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I9" s="63"/>
       <c r="J9" s="64">
@@ -3204,7 +3203,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I10" s="67"/>
       <c r="J10" s="68">
@@ -3265,7 +3264,7 @@
         <v>57</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I13" s="59"/>
       <c r="J13" s="60">
@@ -3292,7 +3291,7 @@
         <v>58</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I14" s="63"/>
       <c r="J14" s="64">
@@ -3311,7 +3310,7 @@
         <v>59</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I15" s="63"/>
       <c r="J15" s="64">
@@ -3339,7 +3338,7 @@
         <v>60</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I16" s="67"/>
       <c r="J16" s="68">
@@ -3401,7 +3400,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I19" s="59"/>
       <c r="J19" s="60">
@@ -3428,7 +3427,7 @@
         <v>62</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I20" s="67"/>
       <c r="J20" s="68">
@@ -3479,7 +3478,7 @@
       </c>
       <c r="G23" s="70"/>
       <c r="H23" s="71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I23" s="71"/>
       <c r="J23" s="72">
@@ -3538,7 +3537,7 @@
       </c>
       <c r="G26" s="70"/>
       <c r="H26" s="71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I26" s="71"/>
       <c r="J26" s="72">
